--- a/loaded_influencer_data/athomewithlil/athomewithlil.xlsx
+++ b/loaded_influencer_data/athomewithlil/athomewithlil.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,16 +503,30 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B5" t="n">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="C5" t="n">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="D5" t="n">
-        <v>1328</v>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3216</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1113</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
